--- a/biology/Botanique/Liste_alphabétique_des_espèces_du_genre_Trichomanes/Liste_alphabétique_des_espèces_du_genre_Trichomanes.xlsx
+++ b/biology/Botanique/Liste_alphabétique_des_espèces_du_genre_Trichomanes/Liste_alphabétique_des_espèces_du_genre_Trichomanes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette liste alphabétique comporte toutes les espèces appartenant ou ayant appartenu au genre Trichomanes répertoriées en octobre 2010.
@@ -512,7 +524,7 @@
 Y
 Z
 Les espèces maintenues dans le genre Trichomanes sont repérées en caractère gras ; leur sous-genre d'appartenance est ajouté aussi en gras.
-Les données sont issues en premier de la révision taxonomique de la famille des Hyménophyllacées de Ebihara et al.[1] ainsi que des index IPNI (The International Plant Names Index) et TROPICOS (Index du jardin botanique du Missouri) à la date de référence d'octobre 2010. En cas d'ambiguïté, les informations de l'ouvrage de Carl Christensen, Index filicum - 1906, ont été utilisées[2].
+Les données sont issues en premier de la révision taxonomique de la famille des Hyménophyllacées de Ebihara et al. ainsi que des index IPNI (The International Plant Names Index) et TROPICOS (Index du jardin botanique du Missouri) à la date de référence d'octobre 2010. En cas d'ambiguïté, les informations de l'ouvrage de Carl Christensen, Index filicum - 1906, ont été utilisées.
 Les synonymies ont été supprimées ici : pour les retrouver, voir l'espèce concernée de l'article Trichomanes.
 </t>
         </is>
@@ -524,7 +536,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,7 +554,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trichomanes abrotanifolium Bosch - Voir genre Vandenboschia (reclassement suggéré)
 Trichomanes abruptum (Fée) Christ - Subgen. : Trichomanes
@@ -631,7 +645,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -649,7 +663,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Trichomanes badium E.Fourn. - Subgen. : Trichomanes
 Trichomanes baileyanum Watts - Voir Didymoglossum sublimbatum (Müll.Berol.) Ebihara &amp; K.Iwats.
@@ -713,7 +729,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -731,7 +747,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Trichomanes caespifrons C.Chr. - Voir genre Abrodictyum
 Trichomanes caespitosum (Gaudich.) Hook. - Voir Hymenophyllum caespitosum Gaudich.
@@ -820,7 +838,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -838,7 +856,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Trichomanes dactylites Sodiro - Subgen. : Trichomanes
 Trichomanes daguense Weath. - Subgen. : Trichomanes
@@ -884,7 +904,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -902,7 +922,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Trichomanes eglerii P.G.Windisch - Subgen. : Trichomanes
 Trichomanes ekmanii Wess.Boer - Voir Didymoglossum ekmanii (Wess.Boer) Ebihara &amp; Dubuisson
@@ -938,7 +960,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -956,7 +978,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Trichomanes falcatum Poir. - Voir famille des Davalliaceées
 Trichomanes fallax Christ - Voir Crepidomanes fallax (Christ) Ebihara &amp; Dubuisson
@@ -1007,7 +1031,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1025,7 +1049,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Trichomanes galeottii E.Fourn. - Subgen. : Trichomanes
 Trichomanes gardneri Bosch - Subgen. : Trichomanes
@@ -1056,7 +1082,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1074,7 +1100,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Trichomanes haenkeanum C.Presl - Voir Trichomanes crispum var. haenkeanum (C.Presl) C.Chr.
 Trichomanes hartii Baker - Voir Abrodictyum guineense (Afzel. ex Sw.) J.P.Roux
@@ -1121,7 +1149,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1139,7 +1167,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Trichomanes idoneum C.V.Morton - Voir Abrodictyum idoneum (C.V.Morton) Ebihara &amp; K.Iwats.
 Trichomanes ignobile Ces. - Voir Callistopteris superba (Backh. ex T.Moore) Ebihara &amp; K.Iwats.
@@ -1157,7 +1187,7 @@
 Trichomanes insigne (Bosch) Bedd. - Voir Crepidomanes insigne (Bosch) Fu
 Trichomanes intermedium Kaulf. - Voir Crepidomanes intermedium (Bosch) Ebihara &amp; K.Iwats.
 Trichomanes intramarginale Hook. &amp; Grev. - Voir Crepidomanes intramarginale (Hook. &amp; Grev.) C.Presl
-Trichomanes intricatum Farrar - Voir genre Crepidomanes - Espèce génétiquement presque identique à Crepidomanes schmidtianum (Zenker ex Taschn.) K.Iwats[3].</t>
+Trichomanes intricatum Farrar - Voir genre Crepidomanes - Espèce génétiquement presque identique à Crepidomanes schmidtianum (Zenker ex Taschn.) K.Iwats.</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1197,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1185,7 +1215,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Trichomanes japonicum Poir. - Homonyme
 Trichomanes japonicum Franch. &amp; Sav. - Voir Vandenboschia orientalis (C.Chr.) Ching
@@ -1208,7 +1240,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1226,7 +1258,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Trichomanes kalamocarpum Hayata - Voir Vandenboschia kalamocarpa (Hayata) Ebihara
 Trichomanes kalbreyeri Baker - Subgen. : Trichomanes
@@ -1250,7 +1284,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1268,7 +1302,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Trichomanes labiatum Jenman - Voir Didymoglossum punctatum (Poir.) Desv.
 Trichomanes laceratum Desv. - Subgen. : Lacostea
@@ -1336,7 +1372,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1354,7 +1390,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Trichomanes macgillivrayi Baker - Voir Hymenophyllum macgillivrayi (Baker) Copel.
 Trichomanes macilentum Bosch - Subgen. : Trichomanes
@@ -1433,7 +1471,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1451,7 +1489,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Trichomanes nanophyllum (Tagawa) C.V.Morton - Voir Crepidomanes nanophyllum Tagawa
 Trichomanes nanum (Bory) Hook. - Subgen. : Feea
@@ -1478,7 +1518,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1496,7 +1536,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Trichomanes obscurum Blume - Voir Abrodictyum obscurum (Blume) Ebihara &amp; K.Iwats.
 Trichomanes obtusum (Copel.) C.V.Morton - Voir genre Vandenboschia
@@ -1518,7 +1560,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1536,7 +1578,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Trichomanes pabstianum Müll.Berol. - Voir Didymoglossum pabstianum (Müll.Berol) Bosch
 Trichomanes pachycarpum Fée - Voir Hymenophyllum lineare (Sw.) Sw.
@@ -1641,7 +1685,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1659,7 +1703,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Trichomanes quelpaertense Nakai - Voir Vandenboschia × quelpaertensis (Nakai) Ebihara
 Trichomanes quercifolium Hook. &amp; Grev. - Voir Didymoglossum montanum (Hook.) J.P.Roux
@@ -1673,7 +1719,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1691,7 +1737,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Trichomanes racemulosum Bosch - Voir Abrodictyum obscurum (Blume) Ebihara &amp; K.Iwats.
 Trichomanes radicans Sw. - Voir Vandenboschia radicans (Sw.) Copel.
@@ -1745,7 +1793,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1763,7 +1811,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Trichomanes samoense C.Chr. - Voir genre Crepidomanes subgen. Crepidomanes section Crepidomanes
 Trichomanes sandvicense Bosch - Voir Vandenboschia davallioides (Gaudich.) Copel.
@@ -1848,7 +1898,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1866,7 +1916,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Trichomanes taeniatum Copel. - Voir genre Hymenophyllum subgen Sphaerocionium
 Trichomanes tagawanum (K.Iwats.) C.V.Morton - Voir Crepidomanes tagawanum K.Iwats.
@@ -1913,7 +1965,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1931,7 +1983,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Trichomanes ujhelyii Kümmerle - Subgen. : Trichomanes
 Trichomanes ulei Christ - Voir genre Polyphlebium
@@ -1948,7 +2002,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1966,7 +2020,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Trichomanes vamana C.A.Hameed &amp; Madhus. - Voir Didymoglossum subgen. Microgonium
 Trichomanes vandenboschii P.G.Windisch - Subgen. : Trichomanes
@@ -1995,7 +2051,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2013,7 +2069,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Trichomanes walleri Watts - Voir Crepidomanes walleri (Watts) Tindale
 Trichomanes wallii Thwaites - Voir Didymoglossum wallii (Thwaites) Copel.
@@ -2031,7 +2089,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2049,7 +2107,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Trichomanes yandinense F.M.Bailey - Voir Didymoglossum bimarginatum (Bosch) Ebihara &amp; K.Iwats.</t>
         </is>
@@ -2061,7 +2121,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_alphab%C3%A9tique_des_esp%C3%A8ces_du_genre_Trichomanes</t>
+          <t>Liste_alphabétique_des_espèces_du_genre_Trichomanes</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2079,7 +2139,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Trichomanes zollingeri Bosch - Voir Cephalomanes javanicum (Blume) K.Iwats.</t>
         </is>
